--- a/data/evaluation/evaluation_South_Winter_Zucchini.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Zucchini.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1322.148809523809</v>
+        <v>1411.466587301587</v>
       </c>
       <c r="C3" t="n">
-        <v>5008687.053583632</v>
+        <v>5298955.821139188</v>
       </c>
       <c r="D3" t="n">
-        <v>2238.009618742429</v>
+        <v>2301.946094316543</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1583519534337852</v>
+        <v>0.1095758692866392</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1396.584736050278</v>
+        <v>1412.025513640061</v>
       </c>
       <c r="C4" t="n">
-        <v>5172021.812296369</v>
+        <v>5199505.168702862</v>
       </c>
       <c r="D4" t="n">
-        <v>2274.207952737913</v>
+        <v>2280.242348677627</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1309055629653327</v>
+        <v>0.1262873240965141</v>
       </c>
     </row>
     <row r="5">
